--- a/biology/Botanique/Anjou-coteaux-de-la-loire/Anjou-coteaux-de-la-loire.xlsx
+++ b/biology/Botanique/Anjou-coteaux-de-la-loire/Anjou-coteaux-de-la-loire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L’anjou-coteaux-de-la-loire est un vin blanc d'appellation d'origine contrôlée produit sur une petite partie du Maine-et-Loire, sur le coteau de la rive droite de la Loire en aval d'Angers. Cette appellation fait partie du vignoble de la vallée de la Loire.
@@ -509,16 +521,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Histoire</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Antiquité au Moyen Âge
-Période moderne
-Période contemporaine</t>
-        </is>
-      </c>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -541,10 +549,21 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Étymologie</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
+          <t>Situation géographique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Géologie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sols schisteux, calcaires.
+</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -567,15 +586,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Situation géographique</t>
+          <t>Vignoble</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Orographie
-Géologie
-Sols schisteux, calcaires[3].
-Climatologie</t>
+          <t>Présentation</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Vignoble produisant des vins blancs secs ou demi-secs. Ce vignoble, classé AOC par le décret du 26 août 1946, couvre une superficie de 120 hectares à l'ouest d'Angers sur les deux rives de la Loire. Il s'étend sur les communes de Chalonnes-sur-Loire, La Pommeraye, Le Mesnil-en-Vallée, Montjean-sur-Loire, Bouchemaine, Champtocé-sur-Loire, Ingrandes, La Possonnière, Saint-Georges-sur-Loire et Saint-Germain-des-Prés dans le département de Maine-et-Loire. 
+</t>
         </is>
       </c>
     </row>
@@ -605,18 +628,14 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Présentation
-Vignoble produisant des vins blancs secs ou demi-secs. Ce vignoble, classé AOC par le décret du 26 août 1946, couvre une superficie de 120 hectares à l'ouest d'Angers sur les deux rives de la Loire. Il s'étend sur les communes de Chalonnes-sur-Loire, La Pommeraye, Le Mesnil-en-Vallée, Montjean-sur-Loire, Bouchemaine, Champtocé-sur-Loire, Ingrandes, La Possonnière, Saint-Georges-sur-Loire et Saint-Germain-des-Prés dans le département de Maine-et-Loire. 
-Lieux-dits
-Encépagement
-Les vins des coteaux de la Loire sont issus exclusivement du chenin blanc. 
-Méthodes culturales
-Terroir et vins
-Vin vinifiés en blanc sec ou demi-sec.
-Structure des exploitations
-Type de vins et gastronomie
-Ils peuvent très bien se garder en bouteille, jusqu'à 10 ou 15 ans pour certains millésimes.
-Commercialisation</t>
+          <t>Encépagement</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les vins des coteaux de la Loire sont issus exclusivement du chenin blanc. 
+</t>
         </is>
       </c>
     </row>
@@ -641,10 +660,86 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Terroir et vins</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Vin vinifiés en blanc sec ou demi-sec.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Anjou-coteaux-de-la-loire</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anjou-coteaux-de-la-loire</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Type de vins et gastronomie</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ils peuvent très bien se garder en bouteille, jusqu'à 10 ou 15 ans pour certains millésimes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Anjou-coteaux-de-la-loire</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anjou-coteaux-de-la-loire</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Les principaux producteurs de l'appellation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
